--- a/backtracking.xlsx
+++ b/backtracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\DSA-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF927C5-CE3D-40D3-9E67-D34FE87B26BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7CB9D-9CA7-4039-956C-AA59AA753228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/backtracking.xlsx
+++ b/backtracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\DSA-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7CB9D-9CA7-4039-956C-AA59AA753228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F57C4F-4857-4149-B384-73BF2642C49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubSets" sheetId="1" r:id="rId1"/>
@@ -26,16 +26,2807 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>All Queen:Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>printBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`-------------`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>canPlance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//row should be empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>===</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//column should be empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>===</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t>       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//left diagnal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>===</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//right diagnal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>printBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cnt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>canPlance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cnt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// if(sucess) return true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cnt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,8 +2834,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +2905,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -70,9 +2927,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,18 +3688,757 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E17395-E5EB-448D-A7AD-9F3AD9DA3C25}">
-  <dimension ref="A51"/>
+  <dimension ref="A51:S115"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L59" s="5"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L63" s="5"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+    </row>
+    <row r="65" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+    </row>
+    <row r="66" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L68" s="5"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+    </row>
+    <row r="70" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+    </row>
+    <row r="71" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+    </row>
+    <row r="72" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+    </row>
+    <row r="73" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+    </row>
+    <row r="74" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L74" s="5"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+    </row>
+    <row r="75" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+    </row>
+    <row r="76" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+    </row>
+    <row r="77" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+    </row>
+    <row r="78" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+    </row>
+    <row r="79" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+    </row>
+    <row r="80" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+    </row>
+    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+    </row>
+    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L82" s="5"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+    </row>
+    <row r="84" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+    </row>
+    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+    </row>
+    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+    </row>
+    <row r="87" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+    </row>
+    <row r="88" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+    </row>
+    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+    </row>
+    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L90" s="5"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+    </row>
+    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L92" s="5"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+    </row>
+    <row r="93" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+    </row>
+    <row r="94" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L94" s="5"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+    </row>
+    <row r="95" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+    </row>
+    <row r="97" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+    </row>
+    <row r="98" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+    </row>
+    <row r="99" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+    </row>
+    <row r="100" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+    </row>
+    <row r="101" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+    </row>
+    <row r="102" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+    </row>
+    <row r="103" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+    </row>
+    <row r="104" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L104" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+    </row>
+    <row r="105" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L105" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+    </row>
+    <row r="106" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L106" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+    </row>
+    <row r="107" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+    </row>
+    <row r="108" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+    </row>
+    <row r="109" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L109" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+    </row>
+    <row r="110" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L110" s="5"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+    </row>
+    <row r="111" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+    </row>
+    <row r="112" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L112" s="5"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+    </row>
+    <row r="113" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L113" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+    </row>
+    <row r="114" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+    </row>
+    <row r="115" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L115" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
